--- a/任之堂中藥講記/2016药物采购.xlsx
+++ b/任之堂中藥講記/2016药物采购.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>药物性质：</t>
   </si>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>已用完</t>
+  </si>
+  <si>
+    <t>已用完</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>已用完</t>
@@ -1520,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1675,6 +1679,9 @@
       <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1940,7 +1947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2727,7 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3262,12 +3269,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>

--- a/任之堂中藥講記/2016药物采购.xlsx
+++ b/任之堂中藥講記/2016药物采购.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
   <si>
     <t>药物性质：</t>
   </si>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>已用完</t>
+  </si>
+  <si>
+    <t>已用完</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>已用完</t>
@@ -1524,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1878,6 +1882,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
@@ -1894,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
